--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>PTZH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,10 +743,13 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -759,19 +766,22 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,7 +789,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -788,19 +798,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -965,10 +992,13 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1212,8 +1264,11 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,16 +1619,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,13 +1713,16 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -1635,7 +1731,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1675,28 +1774,31 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,25 +2033,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,37 +2125,43 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,13 +2169,13 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2047,13 +2184,16 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2061,13 +2201,13 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2076,18 +2216,21 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2235,13 +2393,13 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -2250,13 +2408,16 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2396,7 +2570,7 @@
         <v>-300</v>
       </c>
       <c r="F72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
@@ -2411,10 +2585,13 @@
         <v>-200</v>
       </c>
       <c r="K72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2509,7 +2695,7 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
@@ -2521,7 +2707,7 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,22 +3022,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,28 +3338,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,13 +3402,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>PTZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,67 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -746,10 +749,13 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -769,30 +775,33 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -801,19 +810,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,13 +990,14 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -995,15 +1021,18 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1029,8 +1058,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,13 +1075,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1075,13 +1108,16 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1107,8 +1143,11 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1178,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1171,8 +1213,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1283,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1267,8 +1318,11 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1299,8 +1353,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,13 +1493,16 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1459,8 +1528,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1491,8 +1563,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1598,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1555,45 +1633,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1629,10 +1715,10 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1652,8 +1738,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1808,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1725,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -1734,7 +1829,7 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -1748,8 +1843,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1777,11 +1875,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1789,19 +1890,19 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -1812,8 +1913,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1948,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1983,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,31 +2088,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2158,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2045,19 +2170,19 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2068,8 +2193,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2225,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,16 +2258,19 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2154,14 +2287,17 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2172,13 +2308,13 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -2187,13 +2323,16 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2204,13 +2343,13 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2219,21 +2358,24 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2256,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2538,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -2411,13 +2568,16 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2728,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2573,7 +2746,7 @@
         <v>-300</v>
       </c>
       <c r="G72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
@@ -2588,10 +2761,13 @@
         <v>-200</v>
       </c>
       <c r="L72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +2868,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2698,7 +2883,7 @@
         <v>-300</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
@@ -2710,7 +2895,7 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -2718,8 +2903,11 @@
       <c r="L76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2938,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2819,8 +3013,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,25 +3238,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3057,8 +3273,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3428,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,31 +3583,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3373,8 +3618,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,16 +3653,19 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3435,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>PTZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -728,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -752,10 +756,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -778,19 +785,22 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,13 +808,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -813,19 +823,22 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,8 +1017,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1024,10 +1051,13 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,8 +1145,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1221,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1216,8 +1259,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1321,8 +1373,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,8 +1601,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1636,48 +1715,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1792,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1718,10 +1805,10 @@
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,19 +1904,22 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -1832,7 +1928,7 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -1846,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,11 +1977,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1893,19 +1995,19 @@
         <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,16 +2208,19 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2117,8 +2237,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2284,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2173,19 +2299,19 @@
         <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,8 +2406,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2290,14 +2424,17 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2311,13 +2448,13 @@
         <v>500</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -2326,13 +2463,16 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2346,13 +2486,13 @@
         <v>500</v>
       </c>
       <c r="G60" s="3">
+        <v>500</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -2361,13 +2501,16 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2375,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2550,19 +2708,19 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
       </c>
       <c r="G66" s="3">
+        <v>500</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -2571,13 +2729,16 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,8 +2902,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2749,7 +2923,7 @@
         <v>-300</v>
       </c>
       <c r="H72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -2764,10 +2938,13 @@
         <v>-200</v>
       </c>
       <c r="M72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,8 +3054,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2886,7 +3072,7 @@
         <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -2898,7 +3084,7 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3250,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,31 +3511,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,31 +3623,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3595,25 +3841,25 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3665,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3689,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PTZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,88 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -759,15 +767,21 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -779,66 +793,78 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,22 +1070,24 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1054,15 +1108,21 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1094,8 +1154,14 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,13 +1176,15 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1148,16 +1216,22 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1186,8 +1260,14 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1304,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1262,8 +1348,14 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1436,14 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1376,8 +1480,14 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1385,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1414,8 +1524,14 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,13 +1700,19 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1604,8 +1744,14 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1613,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1642,8 +1788,14 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1832,14 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1689,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1718,51 +1876,63 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,28 +1965,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1831,8 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1916,25 +2108,25 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1945,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1980,16 +2178,22 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
@@ -1998,22 +2202,22 @@
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2021,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2222,11 +2462,11 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2240,17 +2480,23 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2533,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2302,22 +2554,22 @@
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2325,8 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,8 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2409,11 +2677,11 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2427,22 +2695,28 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
@@ -2451,36 +2725,42 @@
         <v>500</v>
       </c>
       <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
@@ -2489,28 +2769,34 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
+        <v>500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>500</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2521,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2547,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
       </c>
       <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>600</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,16 +3247,22 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F72" s="3">
         <v>-300</v>
@@ -2926,10 +3274,10 @@
         <v>-300</v>
       </c>
       <c r="I72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K72" s="3">
         <v>-200</v>
@@ -2941,10 +3289,16 @@
         <v>-200</v>
       </c>
       <c r="N72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,16 +3423,22 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -3075,10 +3447,10 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -3087,16 +3459,22 @@
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3511,63 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3185,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3214,8 +3604,14 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3467,26 +3901,26 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3496,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,19 +3952,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -3538,11 +3980,11 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3550,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,19 +4080,25 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -3652,11 +4112,11 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3664,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3844,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3853,10 +4345,10 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -3865,13 +4357,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3917,16 +4421,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -3944,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PTZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,19 +747,19 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -773,21 +780,27 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -799,72 +812,84 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,16 +1137,16 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1114,10 +1167,16 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1325,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1354,8 +1439,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1486,8 +1589,14 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1765,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,22 +2152,22 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2114,25 +2305,25 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2184,11 +2381,17 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,10 +2399,10 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
@@ -2208,22 +2411,22 @@
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2468,11 +2707,11 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -2486,17 +2725,23 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,16 +2784,22 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
@@ -2560,22 +2811,22 @@
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2683,11 +2950,11 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2701,28 +2968,34 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
@@ -2731,42 +3004,48 @@
         <v>500</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
@@ -2775,28 +3054,34 @@
         <v>500</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>500</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,43 +3339,49 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
       </c>
       <c r="H66" s="3">
+        <v>600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,13 +3609,13 @@
         <v>-500</v>
       </c>
       <c r="E72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-300</v>
       </c>
       <c r="H72" s="3">
         <v>-300</v>
@@ -3280,10 +3627,10 @@
         <v>-300</v>
       </c>
       <c r="K72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M72" s="3">
         <v>-200</v>
@@ -3295,10 +3642,16 @@
         <v>-200</v>
       </c>
       <c r="P72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,22 +3794,28 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -3453,10 +3824,10 @@
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -3465,16 +3836,22 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3581,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,32 +4334,32 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3968,11 +4409,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -3986,11 +4427,11 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4100,11 +4559,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -4118,11 +4577,11 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4342,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4351,10 +4842,10 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -4363,13 +4854,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,22 +4924,22 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>PTZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -786,10 +794,16 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -818,78 +832,90 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1143,16 +1197,16 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1173,25 +1227,31 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1285,14 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1311,15 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1295,13 +1363,19 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
@@ -1316,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1345,8 +1419,14 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1475,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1445,8 +1531,14 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1643,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1595,8 +1699,14 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1616,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1645,8 +1755,14 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1979,19 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1895,8 +2035,14 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1916,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -1945,8 +2091,14 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2016,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2045,63 +2203,75 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,13 +2312,15 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2158,22 +2332,22 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2190,8 +2364,14 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2311,25 +2503,25 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2340,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2387,16 +2585,22 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2405,10 +2609,10 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
@@ -2417,22 +2621,22 @@
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2440,8 +2644,14 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2713,11 +2953,11 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -2731,17 +2971,23 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +3036,14 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2802,10 +3054,10 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
@@ -2817,22 +3069,22 @@
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2840,8 +3092,14 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2956,11 +3224,11 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -2974,34 +3242,40 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
-        <v>600</v>
-      </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
@@ -3010,48 +3284,54 @@
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
-        <v>600</v>
-      </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
@@ -3060,28 +3340,34 @@
         <v>500</v>
       </c>
       <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3104,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3130,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3640,14 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3345,43 +3661,49 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>600</v>
       </c>
       <c r="J66" s="3">
+        <v>600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,28 +3942,34 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F72" s="3">
         <v>-500</v>
       </c>
       <c r="G72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-300</v>
       </c>
       <c r="J72" s="3">
         <v>-300</v>
@@ -3633,10 +3981,10 @@
         <v>-300</v>
       </c>
       <c r="M72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O72" s="3">
         <v>-200</v>
@@ -3648,10 +3996,16 @@
         <v>-200</v>
       </c>
       <c r="R72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +4166,14 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3812,16 +4184,16 @@
         <v>-500</v>
       </c>
       <c r="F76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -3830,10 +4202,10 @@
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -3842,16 +4214,22 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3976,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -4005,8 +4395,14 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4340,32 +4774,32 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,19 +4835,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4415,11 +4857,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -4433,11 +4875,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4565,11 +5025,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -4583,11 +5043,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4839,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4848,10 +5340,10 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -4860,13 +5352,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4930,22 +5434,22 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4963,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,31 +762,31 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -800,10 +807,16 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,22 +824,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -838,28 +851,34 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,52 +889,58 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1203,16 +1256,16 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1233,10 +1286,16 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,20 +1303,20 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1676,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1705,8 +1808,14 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2180,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2338,22 +2511,22 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,13 +2667,19 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2509,25 +2700,25 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2591,11 +2788,17 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,10 +2806,10 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2615,10 +2818,10 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
@@ -2627,22 +2830,22 @@
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2959,11 +3198,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -2977,17 +3216,23 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,16 +3287,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -3060,10 +3311,10 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
@@ -3075,22 +3326,22 @@
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3230,11 +3497,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3248,40 +3515,46 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
-        <v>600</v>
-      </c>
       <c r="H59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
@@ -3290,54 +3563,60 @@
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
-        <v>600</v>
-      </c>
       <c r="H60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>600</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
@@ -3346,28 +3625,34 @@
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3667,43 +3982,49 @@
         <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,34 +4289,40 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-500</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
       </c>
       <c r="I72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-300</v>
       </c>
       <c r="L72" s="3">
         <v>-300</v>
@@ -3987,10 +4334,10 @@
         <v>-300</v>
       </c>
       <c r="O72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q72" s="3">
         <v>-200</v>
@@ -4002,10 +4349,16 @@
         <v>-200</v>
       </c>
       <c r="T72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4537,22 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-500</v>
@@ -4190,16 +4561,16 @@
         <v>-500</v>
       </c>
       <c r="H76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -4208,10 +4579,10 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -4220,16 +4591,22 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4372,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4780,32 +5213,32 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,19 +5276,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4863,11 +5304,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4881,11 +5322,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5458,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5031,11 +5490,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
@@ -5049,11 +5508,11 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5337,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5346,10 +5837,10 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5358,13 +5849,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5440,22 +5943,22 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>PTZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,28 +772,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -813,10 +817,13 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -857,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -866,19 +873,22 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,31 +905,31 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -928,19 +938,22 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1262,13 +1289,13 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1292,10 +1319,13 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1309,17 +1339,17 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,29 +1488,29 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,38 +1606,41 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,38 +1801,41 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1814,38 +1866,41 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,38 +2256,41 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,38 +2386,41 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2502,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2517,7 +2604,7 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
@@ -2526,10 +2613,10 @@
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2706,13 +2802,13 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2721,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2794,11 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2812,7 +2914,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2824,7 +2926,7 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
@@ -2836,19 +2938,19 @@
         <v>300</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3204,8 +3324,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -3222,8 +3342,8 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3305,7 +3431,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -3317,7 +3443,7 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
@@ -3332,19 +3458,19 @@
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3503,8 +3637,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3521,14 +3655,17 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,16 +3676,16 @@
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -3557,7 +3694,7 @@
         <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
@@ -3569,13 +3706,13 @@
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3584,13 +3721,16 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,16 +3741,16 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -3619,7 +3759,7 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
@@ -3631,13 +3771,13 @@
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -3646,13 +3786,16 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3687,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,13 +4116,16 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -3988,7 +4146,7 @@
         <v>700</v>
       </c>
       <c r="K66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -3997,19 +4155,19 @@
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4018,13 +4176,16 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,25 +4466,28 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E72" s="3">
         <v>-700</v>
       </c>
       <c r="F72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G72" s="3">
         <v>-600</v>
       </c>
       <c r="H72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I72" s="3">
         <v>-500</v>
@@ -4322,10 +4496,10 @@
         <v>-500</v>
       </c>
       <c r="K72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-300</v>
       </c>
       <c r="M72" s="3">
         <v>-300</v>
@@ -4340,7 +4514,7 @@
         <v>-300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R72" s="3">
         <v>-200</v>
@@ -4355,10 +4529,13 @@
         <v>-200</v>
       </c>
       <c r="V72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,19 +4726,22 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-600</v>
       </c>
       <c r="F76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
@@ -4567,13 +4753,13 @@
         <v>-500</v>
       </c>
       <c r="J76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -4585,7 +4771,7 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -4597,7 +4783,7 @@
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,105 +4856,111 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5219,28 +5436,28 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -5328,8 +5549,8 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,16 +5691,19 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5496,8 +5726,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
@@ -5514,8 +5744,8 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5834,25 +6080,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5949,19 +6201,19 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>PTZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,28 +779,28 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -820,10 +824,13 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -867,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -876,19 +883,22 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -908,31 +918,31 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -941,19 +951,22 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1292,13 +1319,13 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1322,10 +1349,13 @@
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1342,17 +1372,17 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,32 +1525,32 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,32 +1661,32 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,32 +1865,32 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1869,8 +1921,11 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,32 +1933,32 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,32 +2341,32 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,32 +2477,32 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2592,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2607,7 +2694,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2616,10 +2703,10 @@
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,19 +2862,22 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2805,13 +2901,13 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2820,7 +2916,7 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2896,11 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2917,7 +3019,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2929,7 +3031,7 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
@@ -2941,19 +3043,19 @@
         <v>300</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3327,8 +3447,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
@@ -3345,8 +3465,8 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3434,7 +3560,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
@@ -3446,7 +3572,7 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
@@ -3461,19 +3587,19 @@
         <v>300</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3640,8 +3774,8 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3658,19 +3792,22 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
@@ -3679,16 +3816,16 @@
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -3697,7 +3834,7 @@
         <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
@@ -3709,13 +3846,13 @@
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -3724,18 +3861,21 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
@@ -3744,16 +3884,16 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -3762,7 +3902,7 @@
         <v>600</v>
       </c>
       <c r="M60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
@@ -3774,13 +3914,13 @@
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
@@ -3789,13 +3929,16 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3833,10 +3976,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,7 +4286,7 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
@@ -4149,7 +4307,7 @@
         <v>700</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
@@ -4158,19 +4316,19 @@
         <v>600</v>
       </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
       </c>
       <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
@@ -4179,13 +4337,16 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,28 +4640,31 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-700</v>
       </c>
       <c r="F72" s="3">
         <v>-700</v>
       </c>
       <c r="G72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H72" s="3">
         <v>-600</v>
       </c>
       <c r="I72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J72" s="3">
         <v>-500</v>
@@ -4499,10 +4673,10 @@
         <v>-500</v>
       </c>
       <c r="L72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-300</v>
       </c>
       <c r="N72" s="3">
         <v>-300</v>
@@ -4517,7 +4691,7 @@
         <v>-300</v>
       </c>
       <c r="R72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S72" s="3">
         <v>-200</v>
@@ -4532,10 +4706,13 @@
         <v>-200</v>
       </c>
       <c r="W72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,13 +4924,13 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-600</v>
       </c>
       <c r="G76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H76" s="3">
         <v>-500</v>
@@ -4756,13 +4942,13 @@
         <v>-500</v>
       </c>
       <c r="K76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -4774,7 +4960,7 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -4786,7 +4972,7 @@
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,32 +5133,32 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5439,28 +5656,28 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -5552,8 +5773,8 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5705,8 +5935,8 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5729,8 +5959,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
@@ -5747,8 +5977,8 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6083,25 +6329,25 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6204,19 +6456,19 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
